--- a/采购/外壳厂/欧林无线充报价表.xlsx
+++ b/采购/外壳厂/欧林无线充报价表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="19770" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,22 +129,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,28 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -189,29 +183,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,10 +221,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,9 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,13 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +641,45 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +695,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,65 +742,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,137 +762,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,9 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,18 +939,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,8 +1020,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>310515</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1038,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2446020" y="739140"/>
-          <a:ext cx="2741295" cy="1445895"/>
+          <a:off x="2717800" y="712470"/>
+          <a:ext cx="3013075" cy="1365885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1091,8 +1076,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5227320" y="739140"/>
-          <a:ext cx="2673350" cy="1410335"/>
+          <a:off x="5770880" y="712470"/>
+          <a:ext cx="2945130" cy="1330325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,8 +1114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2552700"/>
-          <a:ext cx="1336675" cy="2395855"/>
+          <a:off x="2710180" y="2423160"/>
+          <a:ext cx="1472565" cy="2254885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,8 +1152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3855720" y="2575560"/>
-          <a:ext cx="1944370" cy="2332990"/>
+          <a:off x="4263390" y="2444115"/>
+          <a:ext cx="2148205" cy="2195830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,8 +1190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5814060" y="2575560"/>
-          <a:ext cx="1960245" cy="2383790"/>
+          <a:off x="6425565" y="2444115"/>
+          <a:ext cx="2164080" cy="2244725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,8 +1228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2446020" y="4965065"/>
-          <a:ext cx="2713355" cy="1809115"/>
+          <a:off x="2717800" y="4694555"/>
+          <a:ext cx="2985135" cy="1694815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,12 +1266,54 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5166360" y="4975860"/>
-          <a:ext cx="2717800" cy="1812290"/>
+          <a:off x="5709920" y="4705350"/>
+          <a:ext cx="2989580" cy="1697990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>668020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16251555" y="2886075"/>
+          <a:ext cx="6371590" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1554,11 +1581,11 @@
   <sheetPr/>
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
@@ -1586,9 +1613,9 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="21"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1612,7 +1639,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="22"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
@@ -1654,7 +1681,7 @@
       </c>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" ht="14.25" spans="1:24">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
@@ -1688,7 +1715,7 @@
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1719,218 +1746,218 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:24">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1991,305 +2018,305 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="13"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="13"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="13"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="14"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:24">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="8"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -2341,318 +2368,318 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="14"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="14"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="14"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="13"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="14"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="13"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="14"/>
-    </row>
-    <row r="41" ht="15.15" spans="1:24">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:24">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
